--- a/Xports/UD_French-Sequoia/VERB-indirect-obj.xlsx
+++ b/Xports/UD_French-Sequoia/VERB-indirect-obj.xlsx
@@ -7937,7 +7937,7 @@
         <v>484</v>
       </c>
       <c r="E120" t="s">
-        <v>500</v>
+        <v>505</v>
       </c>
       <c r="F120" t="s">
         <v>303</v>
@@ -7946,7 +7946,7 @@
         <v>552</v>
       </c>
       <c r="H120" t="s">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="I120" t="s">
         <v>595</v>
@@ -7955,16 +7955,16 @@
         <v>611</v>
       </c>
       <c r="K120" t="s">
-        <v>625</v>
+        <v>519</v>
       </c>
       <c r="L120" t="s">
-        <v>635</v>
+        <v>643</v>
       </c>
       <c r="M120" t="s">
         <v>595</v>
       </c>
       <c r="N120" t="s">
-        <v>648</v>
+        <v>595</v>
       </c>
       <c r="O120">
         <v>-1</v>
